--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="948">
   <si>
     <t>anchor score</t>
   </si>
@@ -424,436 +424,436 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>best</t>
@@ -3226,7 +3226,7 @@
         <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3284,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02976999036934549</v>
+        <v>0.0302751721387537</v>
       </c>
       <c r="C3">
         <v>133</v>
@@ -3305,28 +3305,28 @@
         <v>159</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="K3">
-        <v>0.004879175762714003</v>
+        <v>0.008501091707716705</v>
       </c>
       <c r="L3">
+        <v>183</v>
+      </c>
+      <c r="M3">
+        <v>183</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>157</v>
-      </c>
-      <c r="M3">
-        <v>158</v>
-      </c>
-      <c r="N3">
-        <v>0.99</v>
-      </c>
-      <c r="O3">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3334,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0115443071058867</v>
+        <v>0.01174020819345805</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -3355,16 +3355,16 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K4">
-        <v>0.004660478417868516</v>
+        <v>0.007722139272126077</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3384,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01095189133892057</v>
+        <v>0.01113773942876945</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -3405,28 +3405,28 @@
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="K5">
-        <v>0.004168458620009869</v>
+        <v>0.004879175762714003</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3434,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01064332525913646</v>
+        <v>0.01082393713774607</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3455,28 +3455,28 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="K6">
-        <v>0.003786573083409621</v>
+        <v>0.004660478417868516</v>
       </c>
       <c r="L6">
-        <v>286</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>297</v>
+        <v>55</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2810</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3484,7 +3484,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009871037911916129</v>
+        <v>0.01003854446251858</v>
       </c>
       <c r="C7">
         <v>61</v>
@@ -3505,16 +3505,16 @@
         <v>454</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K7">
-        <v>0.003770512690007834</v>
+        <v>0.004168458620009869</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>531</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3534,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008561487289324462</v>
+        <v>0.008706771424251169</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3555,28 +3555,28 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.003652214187427887</v>
+        <v>0.003786573083409621</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3584,7 +3584,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.006829704187902952</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3605,16 +3605,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K9">
-        <v>0.003609991059552771</v>
+        <v>0.003770512690007834</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3634,7 +3634,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006829704187902952</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -3655,28 +3655,28 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="K10">
-        <v>0.003441991422794624</v>
+        <v>0.003652214187427887</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3684,7 +3684,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006829704187902952</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -3705,16 +3705,16 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K11">
-        <v>0.003142093908339862</v>
+        <v>0.003609991059552771</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>205</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3734,7 +3734,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006829704187902952</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3755,28 +3755,28 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="K12">
-        <v>0.003031669505753958</v>
+        <v>0.003441991422794624</v>
       </c>
       <c r="L12">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3784,7 +3784,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3805,16 +3805,16 @@
         <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K13">
-        <v>0.003013790602965035</v>
+        <v>0.003142093908339862</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>41</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3834,7 +3834,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3855,28 +3855,28 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="K14">
-        <v>0.003013790602965035</v>
+        <v>0.003031669505753958</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3884,7 +3884,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3905,28 +3905,28 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="K15">
-        <v>0.003002951405617265</v>
+        <v>0.003013790602965035</v>
       </c>
       <c r="L15">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>3057</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3934,7 +3934,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -3955,28 +3955,28 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="K16">
-        <v>0.002903990775917854</v>
+        <v>0.003013790602965035</v>
       </c>
       <c r="L16">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3984,7 +3984,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4005,28 +4005,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="K17">
-        <v>0.00287977663512541</v>
+        <v>0.003002951405617265</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>116</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4034,7 +4034,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4055,28 +4055,28 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="K18">
-        <v>0.00287977663512541</v>
+        <v>0.002903990775917854</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4084,7 +4084,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4105,16 +4105,16 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K19">
-        <v>0.00281037422829437</v>
+        <v>0.00287977663512541</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4134,7 +4134,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4155,16 +4155,16 @@
         <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K20">
-        <v>0.00281037422829437</v>
+        <v>0.00287977663512541</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>165</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4184,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4205,16 +4205,16 @@
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K21">
-        <v>0.002739213963513642</v>
+        <v>0.00281037422829437</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4234,7 +4234,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4255,16 +4255,16 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K22">
-        <v>0.002739213963513642</v>
+        <v>0.00281037422829437</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4284,7 +4284,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4305,16 +4305,16 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K23">
-        <v>0.00266615509165447</v>
+        <v>0.002739213963513642</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4355,28 +4355,28 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="K24">
-        <v>0.002653652694821026</v>
+        <v>0.002739213963513642</v>
       </c>
       <c r="L24">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1932</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4384,7 +4384,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4405,16 +4405,16 @@
         <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K25">
-        <v>0.002591037013939013</v>
+        <v>0.00266615509165447</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4434,7 +4434,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4455,28 +4455,28 @@
         <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="K26">
-        <v>0.002513675126671889</v>
+        <v>0.002653652694821026</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4484,7 +4484,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4505,16 +4505,16 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K27">
-        <v>0.002433855475844012</v>
+        <v>0.002591037013939013</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4534,7 +4534,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4555,16 +4555,16 @@
         <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K28">
-        <v>0.002433855475844012</v>
+        <v>0.002513675126671889</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4584,7 +4584,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4605,7 +4605,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K29">
         <v>0.002433855475844012</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>293</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4634,7 +4634,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4655,28 +4655,28 @@
         <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="K30">
-        <v>0.002421587368694386</v>
+        <v>0.002433855475844012</v>
       </c>
       <c r="L30">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4684,7 +4684,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4705,28 +4705,28 @@
         <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="K31">
-        <v>0.002377862701871574</v>
+        <v>0.002433855475844012</v>
       </c>
       <c r="L31">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>157</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4734,7 +4734,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4755,28 +4755,28 @@
         <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>300</v>
+        <v>139</v>
       </c>
       <c r="K32">
-        <v>0.002351327776415449</v>
+        <v>0.002421587368694386</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4784,7 +4784,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4805,28 +4805,28 @@
         <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="K33">
-        <v>0.002351327776415449</v>
+        <v>0.002377862701871574</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4834,7 +4834,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4855,28 +4855,28 @@
         <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="K34">
-        <v>0.002307399874567274</v>
+        <v>0.002351327776415449</v>
       </c>
       <c r="L34">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4884,7 +4884,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4905,28 +4905,28 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="K35">
-        <v>0.002298714151772423</v>
+        <v>0.002351327776415449</v>
       </c>
       <c r="L35">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>145</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4934,7 +4934,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4955,28 +4955,28 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="K36">
-        <v>0.002265796139768484</v>
+        <v>0.002307399874567274</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4984,7 +4984,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5005,28 +5005,28 @@
         <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="K37">
-        <v>0.002206036818959285</v>
+        <v>0.002265796139768484</v>
       </c>
       <c r="L37">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5034,7 +5034,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5084,7 +5084,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5105,7 +5105,7 @@
         <v>27</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K39">
         <v>0.002167910577960368</v>
@@ -5134,7 +5134,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5184,7 +5184,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5234,7 +5234,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5284,7 +5284,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5334,7 +5334,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5355,7 +5355,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K44">
         <v>0.002049989131240427</v>
@@ -5384,7 +5384,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5434,7 +5434,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5484,7 +5484,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5534,7 +5534,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5584,7 +5584,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5634,7 +5634,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5684,7 +5684,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5734,7 +5734,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5755,7 +5755,7 @@
         <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K52">
         <v>0.001958689125094485</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5834,7 +5834,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -5884,7 +5884,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5934,7 +5934,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5984,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6034,7 +6034,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6134,7 +6134,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6184,7 +6184,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6234,7 +6234,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6284,7 +6284,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6334,7 +6334,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003050446318368617</v>
+        <v>0.00310221085874902</v>
       </c>
       <c r="C64">
         <v>11</v>
@@ -6384,7 +6384,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6434,7 +6434,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6534,7 +6534,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6634,7 +6634,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>6</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K70">
         <v>0.001761669462853277</v>
@@ -6684,7 +6684,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6705,7 +6705,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K71">
         <v>0.001674666853958875</v>
@@ -6734,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6884,7 +6884,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6984,7 +6984,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7034,7 +7034,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7134,7 +7134,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>16</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K81">
         <v>0.001652021706325689</v>
@@ -7234,7 +7234,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7255,7 +7255,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K82">
         <v>0.001652021706325689</v>
@@ -7284,7 +7284,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7305,7 +7305,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K83">
         <v>0.001584958624550454</v>
@@ -7334,7 +7334,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7355,7 +7355,7 @@
         <v>15</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K84">
         <v>0.001555157504145235</v>
@@ -7384,7 +7384,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7434,7 +7434,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7534,7 +7534,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7584,7 +7584,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7634,7 +7634,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7684,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7734,7 +7734,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7884,7 +7884,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7934,7 +7934,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7984,7 +7984,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8034,7 +8034,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8084,7 +8084,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8134,7 +8134,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8184,7 +8184,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8234,7 +8234,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8334,7 +8334,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8384,7 +8384,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8405,7 +8405,7 @@
         <v>18</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K105">
         <v>0.001501475702808633</v>
@@ -8434,7 +8434,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8455,7 +8455,7 @@
         <v>9</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K106">
         <v>0.00145030403840415</v>
@@ -8484,7 +8484,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8534,7 +8534,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8584,7 +8584,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8634,7 +8634,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8684,7 +8684,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8734,7 +8734,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8784,7 +8784,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8884,7 +8884,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8984,7 +8984,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9034,7 +9034,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9084,7 +9084,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9134,7 +9134,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9284,7 +9284,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9334,7 +9334,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9384,7 +9384,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9434,7 +9434,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9484,7 +9484,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9534,7 +9534,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9584,7 +9584,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9634,7 +9634,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00255640197617613</v>
+        <v>0.002599782832455247</v>
       </c>
       <c r="C130">
         <v>11</v>
@@ -9684,25 +9684,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002417985905080639</v>
+        <v>0.0021204396988577</v>
       </c>
       <c r="C131">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>145</v>
+        <v>3057</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>385</v>
@@ -9734,25 +9734,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002212326670266242</v>
+        <v>0.002117810409480376</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>386</v>
@@ -9784,25 +9784,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0020850573243469</v>
+        <v>0.001926167378874248</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E133">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F133">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>3057</v>
+        <v>38</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>387</v>
@@ -9834,25 +9834,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002082471908182049</v>
+        <v>0.001779043417258566</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E134">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>388</v>
@@ -9884,25 +9884,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001894026698049167</v>
+        <v>0.001776035834421799</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E135">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F135">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>38</v>
+        <v>797</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>389</v>
@@ -9934,13 +9934,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001749357696653388</v>
+        <v>0.001740608991451655</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E136">
         <v>0.97</v>
@@ -9952,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>390</v>
@@ -9984,25 +9984,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001746400299361799</v>
+        <v>0.001691470431971136</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E137">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F137">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>391</v>
@@ -10034,28 +10034,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001711564600684218</v>
+        <v>0.001626703050345356</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="E138">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F138">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K138">
         <v>0.001303414539373586</v>
@@ -10084,25 +10084,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001663245983838898</v>
+        <v>0.00160495650876658</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D139">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>812</v>
+        <v>338</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>392</v>
@@ -10134,13 +10134,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001599559332664449</v>
+        <v>0.001488926412017971</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="E140">
         <v>0.99</v>
@@ -10152,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>393</v>
@@ -10184,25 +10184,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001578175661238911</v>
+        <v>0.001446445807958642</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E141">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>394</v>
@@ -10234,25 +10234,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001464081681956832</v>
+        <v>0.00141001615458798</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E142">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>395</v>
@@ -10284,25 +10284,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001422309923635055</v>
+        <v>0.001405881046175088</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E143">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F143">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>803</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>396</v>
@@ -10334,25 +10334,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001386488147790716</v>
+        <v>0.001398577616955699</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F144">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>397</v>
@@ -10384,25 +10384,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001382422039196393</v>
+        <v>0.001389933108561041</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E145">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F145">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>803</v>
+        <v>34</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>398</v>
@@ -10434,25 +10434,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001375240477468918</v>
+        <v>0.001318511292477741</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E146">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>399</v>
@@ -10484,25 +10484,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001366740214267201</v>
+        <v>0.001311171447874517</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E147">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F147">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>34</v>
+        <v>597</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>400</v>
@@ -10534,25 +10534,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001296510166780888</v>
+        <v>0.001299319691197459</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E148">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F148">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>401</v>
@@ -10584,25 +10584,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001289292797308997</v>
+        <v>0.001279392672986349</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E149">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F149">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>597</v>
+        <v>1109</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>402</v>
@@ -10634,25 +10634,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001277638803055262</v>
+        <v>0.001135563501555249</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E150">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F150">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>403</v>
@@ -10684,25 +10684,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001258044293814632</v>
+        <v>0.001118922303296782</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>1109</v>
+        <v>50</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>404</v>
@@ -10734,25 +10734,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001116615104619242</v>
+        <v>0.001105083488688825</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E152">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F152">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>405</v>
@@ -10784,25 +10784,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001100251587027386</v>
+        <v>0.001105083488688825</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>50</v>
+        <v>446</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>406</v>
@@ -10834,13 +10834,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00108664369156394</v>
+        <v>0.00106021984942885</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E154">
         <v>0.97</v>
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>407</v>
@@ -10884,25 +10884,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.00108664369156394</v>
+        <v>0.001013523828558446</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E155">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F155">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>408</v>
@@ -10934,25 +10934,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.00104252866217345</v>
+        <v>0.000994108021292042</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>409</v>
@@ -10984,13 +10984,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0009966118269122805</v>
+        <v>0.000994108021292042</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E157">
         <v>0.9399999999999999</v>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>410</v>
@@ -11034,25 +11034,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0009775199983775046</v>
+        <v>0.0009534153747162212</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E158">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>411</v>
@@ -11084,25 +11084,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0009775199983775046</v>
+        <v>0.000951301607760651</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F159">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>412</v>
@@ -11134,13 +11134,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0009375063630755045</v>
+        <v>0.000887138751274664</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E160">
         <v>0.93</v>
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>319</v>
+        <v>188</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>413</v>
@@ -11184,13 +11184,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0009354278671507924</v>
+        <v>0.0008834359205575872</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E161">
         <v>0.96</v>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>414</v>
@@ -11234,25 +11234,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.000872335653805043</v>
+        <v>0.0008645924791969368</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F162">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>415</v>
@@ -11284,25 +11284,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008686946097745919</v>
+        <v>0.0008241962708166747</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E163">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>416</v>
@@ -11334,25 +11334,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0008501655964543399</v>
+        <v>0.0008003888827836831</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D164">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>417</v>
@@ -11384,25 +11384,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0008104434528798332</v>
+        <v>0.0007593678135365869</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>418</v>
@@ -11434,25 +11434,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007870333229815395</v>
+        <v>0.0007593678135365869</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E166">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F166">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>419</v>
@@ -11484,25 +11484,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007466967451801164</v>
+        <v>0.0007029405230875438</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E167">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F167">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>215</v>
+        <v>529</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>420</v>
@@ -11534,25 +11534,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007466967451801164</v>
+        <v>0.0007029405230875438</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E168">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F168">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>421</v>
@@ -11584,25 +11584,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006912110195981967</v>
+        <v>0.0007006450247609456</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E169">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F169">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>529</v>
+        <v>139</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>422</v>
@@ -11634,25 +11634,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006912110195981967</v>
+        <v>0.0006693027035602936</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E170">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F170">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>423</v>
@@ -11684,25 +11684,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.000688953824733623</v>
+        <v>0.0006693027035602936</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E171">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F171">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>424</v>
@@ -11734,25 +11734,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006581344921128191</v>
+        <v>0.0006434580773212776</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>425</v>
@@ -11784,25 +11784,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006581344921128191</v>
+        <v>0.0006434580773212776</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E173">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F173">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>426</v>
@@ -11834,7 +11834,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006327211180547416</v>
+        <v>0.0006434580773212776</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>427</v>
@@ -11884,25 +11884,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0006327211180547416</v>
+        <v>0.0006364935634723095</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E175">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F175">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>428</v>
@@ -11934,25 +11934,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006327211180547416</v>
+        <v>0.0006364935634723095</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E176">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F176">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>429</v>
@@ -11984,25 +11984,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006258728164411048</v>
+        <v>0.0006105642130634686</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F177">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>430</v>
@@ -12034,25 +12034,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006258728164411048</v>
+        <v>0.0006105642130634686</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>431</v>
@@ -12084,7 +12084,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006003761319493762</v>
+        <v>0.0006105642130634686</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12102,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>432</v>
@@ -12134,7 +12134,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006003761319493762</v>
+        <v>0.0006105642130634686</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>433</v>
@@ -12184,7 +12184,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0006003761319493762</v>
+        <v>0.0006105642130634686</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12202,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>434</v>
@@ -12234,13 +12234,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006003761319493762</v>
+        <v>0.0005751840920696601</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E182">
         <v>0.92</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K182">
         <v>0.001237740573883156</v>
@@ -12284,13 +12284,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006003761319493762</v>
+        <v>0.0005751840920696601</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E183">
         <v>0.92</v>
@@ -12302,10 +12302,10 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K183">
         <v>0.001198112824140397</v>
@@ -12334,7 +12334,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005655863756294204</v>
+        <v>0.0005751840920696601</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12352,10 +12352,10 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K184">
         <v>0.001183282573396425</v>
@@ -12384,28 +12384,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005655863756294204</v>
+        <v>0.0005659604066026671</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F185">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K185">
         <v>0.001152057486829141</v>
@@ -12434,25 +12434,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005655863756294204</v>
+        <v>0.0005369541303665222</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>435</v>
@@ -12484,25 +12484,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005565165997000288</v>
+        <v>0.0004954308482130811</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F187">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>436</v>
@@ -12534,25 +12534,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005279943320067839</v>
+        <v>0.0004954308482130811</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F188">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>437</v>
@@ -12584,25 +12584,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.000487163921393553</v>
+        <v>0.0004500689149128607</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>438</v>
@@ -12634,25 +12634,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.000487163921393553</v>
+        <v>0.0004500689149128607</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E190">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F190">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>439</v>
@@ -12684,7 +12684,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004425589126658291</v>
+        <v>0.0004500689149128607</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12702,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>440</v>
@@ -12734,7 +12734,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004425589126658291</v>
+        <v>0.0004500689149128607</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>441</v>
@@ -12784,25 +12784,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004425589126658291</v>
+        <v>0.0004008268722098852</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E193">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F193">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>442</v>
@@ -12834,25 +12834,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004425589126658291</v>
+        <v>0.0004001944413918416</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E194">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>443</v>
@@ -12884,25 +12884,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003941385393541275</v>
+        <v>0.0004001944413918416</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>444</v>
@@ -12934,7 +12934,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003935166614907698</v>
+        <v>0.0004001944413918416</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12952,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>445</v>
@@ -12984,7 +12984,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003935166614907698</v>
+        <v>0.0004001944413918416</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>446</v>
@@ -13034,7 +13034,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003935166614907698</v>
+        <v>0.0004001944413918416</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13052,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>101</v>
+        <v>352</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>447</v>
@@ -13084,19 +13084,19 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003935166614907698</v>
+        <v>0.0003449778841610172</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F199">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
@@ -13134,25 +13134,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003935166614907698</v>
+        <v>0.0003449778841610172</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>449</v>
@@ -13184,7 +13184,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003392214664227981</v>
+        <v>0.0003449778841610172</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13202,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>450</v>
@@ -13234,25 +13234,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0003392214664227981</v>
+        <v>0.0003033332368486783</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>451</v>
@@ -13284,25 +13284,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0003392214664227981</v>
+        <v>0.0002834273994214035</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>452</v>
@@ -13334,25 +13334,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002982717157907887</v>
+        <v>0.0002834273994214035</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>453</v>
@@ -13384,7 +13384,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002786980339042645</v>
+        <v>0.0002834273994214035</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13402,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>454</v>
@@ -13434,7 +13434,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002786980339042645</v>
+        <v>0.0002834273994214035</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>455</v>
@@ -13484,7 +13484,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002786980339042645</v>
+        <v>0.0002834273994214035</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>456</v>
@@ -13534,7 +13534,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002786980339042645</v>
+        <v>0.0002834273994214035</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13552,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>457</v>
@@ -13584,7 +13584,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002786980339042645</v>
+        <v>0.0002834273994214035</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13602,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>458</v>
@@ -13634,25 +13634,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002786980339042645</v>
+        <v>0.00025034263730741</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>459</v>
@@ -13684,25 +13684,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002786980339042645</v>
+        <v>0.00025034263730741</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>460</v>
@@ -13734,7 +13734,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002461653353289552</v>
+        <v>0.00025034263730741</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>461</v>
@@ -13784,25 +13784,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002461653353289552</v>
+        <v>0.0002383912142998472</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="F213">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>462</v>
@@ -13834,25 +13834,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002461653353289552</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F214">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>463</v>
@@ -13884,25 +13884,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0002344133378108409</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>464</v>
@@ -13934,7 +13934,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002109099528718133</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13952,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>465</v>
@@ -13984,7 +13984,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0002109099528718133</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>466</v>
@@ -14034,7 +14034,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0002109099528718133</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14052,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>467</v>
@@ -14084,7 +14084,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002109099528718133</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14102,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>468</v>
@@ -14134,7 +14134,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002109099528718133</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>469</v>
@@ -14184,7 +14184,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002109099528718133</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>470</v>
@@ -14234,7 +14234,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0002109099528718133</v>
+        <v>0.0002144889887349655</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14252,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>471</v>
@@ -14284,25 +14284,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0002109099528718133</v>
+        <v>0.0001946456113990341</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>472</v>
@@ -14334,25 +14334,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002109099528718133</v>
+        <v>0.000186875269120025</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>14</v>
+        <v>943</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>473</v>
@@ -14384,13 +14384,13 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001913976888464076</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E225">
         <v>0.75</v>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>474</v>
@@ -14434,25 +14434,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001837570051286588</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C226">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>943</v>
+        <v>27</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>475</v>
@@ -14484,7 +14484,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001353386036867282</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>476</v>
@@ -14534,7 +14534,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001353386036867282</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14552,7 +14552,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>477</v>
@@ -14584,7 +14584,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001353386036867282</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14602,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>478</v>
@@ -14634,7 +14634,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001353386036867282</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14652,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>479</v>
@@ -14684,7 +14684,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001353386036867282</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>480</v>
@@ -14734,7 +14734,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001353386036867282</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14752,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>481</v>
@@ -14784,7 +14784,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001353386036867282</v>
+        <v>0.0001376352317484591</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14802,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>482</v>
@@ -14834,25 +14834,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001353386036867282</v>
+        <v>7.922613997994801E-05</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E234">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F234">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>483</v>
@@ -14884,25 +14884,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001353386036867282</v>
+        <v>7.922613997994801E-05</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>484</v>
@@ -14934,25 +14934,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>7.790414579292833E-05</v>
+        <v>7.922613997994677E-05</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E236">
+        <v>0.67</v>
+      </c>
+      <c r="F236">
         <v>0.33</v>
       </c>
-      <c r="F236">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>485</v>
@@ -14984,25 +14984,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>7.790414579292833E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
         <v>3</v>
       </c>
       <c r="E237">
+        <v>0.67</v>
+      </c>
+      <c r="F237">
         <v>0.33</v>
       </c>
-      <c r="F237">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>486</v>
@@ -15034,13 +15034,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>7.790414579292711E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E238">
         <v>0.67</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>487</v>
@@ -15084,7 +15084,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>488</v>
@@ -15134,7 +15134,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>489</v>
@@ -15184,7 +15184,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15202,7 +15202,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>490</v>
@@ -15234,7 +15234,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>491</v>
@@ -15284,7 +15284,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15302,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>492</v>
@@ -15334,7 +15334,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15352,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>493</v>
@@ -15384,7 +15384,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15402,10 +15402,10 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K245">
         <v>0.001065674650228987</v>
@@ -15434,7 +15434,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15452,10 +15452,10 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K246">
         <v>0.001014208690243094</v>
@@ -15484,7 +15484,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15502,10 +15502,10 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K247">
         <v>0.0009707583829968534</v>
@@ -15534,7 +15534,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15552,10 +15552,10 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K248">
         <v>0.0009551864839942929</v>
@@ -15584,7 +15584,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15602,10 +15602,10 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K249">
         <v>0.0009216532594882027</v>
@@ -15634,7 +15634,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15652,10 +15652,10 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K250">
         <v>0.0009216532594882027</v>
@@ -15684,7 +15684,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>494</v>
@@ -15734,7 +15734,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15752,7 +15752,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>495</v>
@@ -15784,7 +15784,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15802,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>496</v>
@@ -15834,7 +15834,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>5.50865497727242E-05</v>
+        <v>5.602134082705499E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -15852,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>497</v>
@@ -15884,25 +15884,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.50865497727242E-05</v>
+        <v>2.737666650562871E-05</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>498</v>
@@ -15934,25 +15934,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.50865497727242E-05</v>
+        <v>0</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E256">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F256">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>499</v>
@@ -15984,25 +15984,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>2.691985018225895E-05</v>
+        <v>0</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F257">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>500</v>
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>501</v>
@@ -16102,7 +16102,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>502</v>
@@ -16152,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>503</v>
@@ -16202,7 +16202,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>504</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>505</v>
@@ -16302,7 +16302,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>506</v>
@@ -16352,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>507</v>
@@ -16452,7 +16452,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>509</v>
@@ -16502,7 +16502,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>510</v>
@@ -16552,7 +16552,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>511</v>
@@ -16602,7 +16602,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>512</v>
@@ -16652,7 +16652,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>513</v>
@@ -16687,10 +16687,10 @@
         <v>0</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E271">
         <v>0.5</v>
@@ -16702,7 +16702,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>514</v>
@@ -16752,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>515</v>
@@ -16779,31 +16779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-      <c r="C273">
-        <v>2</v>
-      </c>
-      <c r="D273">
-        <v>4</v>
-      </c>
-      <c r="E273">
-        <v>0.5</v>
-      </c>
-      <c r="F273">
-        <v>0.5</v>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>97</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>516</v>
       </c>
@@ -16829,31 +16805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>2</v>
-      </c>
-      <c r="E274">
-        <v>0.5</v>
-      </c>
-      <c r="F274">
-        <v>0.5</v>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>27</v>
-      </c>
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
         <v>517</v>
       </c>
@@ -16879,7 +16831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
         <v>518</v>
       </c>
@@ -16905,7 +16857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>519</v>
       </c>
@@ -16931,7 +16883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
         <v>520</v>
       </c>
@@ -16957,7 +16909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>521</v>
       </c>
@@ -16983,7 +16935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>522</v>
       </c>
@@ -17009,7 +16961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>523</v>
       </c>
@@ -17035,7 +16987,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
         <v>524</v>
       </c>
@@ -17061,7 +17013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>525</v>
       </c>
@@ -17087,7 +17039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>526</v>
       </c>
@@ -17113,7 +17065,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>527</v>
       </c>
@@ -17139,7 +17091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>528</v>
       </c>
@@ -17165,7 +17117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>529</v>
       </c>
@@ -17191,7 +17143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
         <v>530</v>
       </c>
@@ -17217,7 +17169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>531</v>
       </c>
@@ -19767,7 +19719,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K386">
         <v>0.0008823359992040188</v>
@@ -19793,7 +19745,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K387">
         <v>0.0008539540933850165</v>
@@ -19819,7 +19771,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K388">
         <v>0.0007508184090836637</v>
@@ -19845,7 +19797,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K389">
         <v>0.0006517072696867928</v>
@@ -19871,7 +19823,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K390">
         <v>0.0006517072696867928</v>
@@ -28243,7 +28195,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K712">
         <v>0.0005748314763353881</v>
@@ -28269,7 +28221,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K713">
         <v>0.0005748314763353881</v>
@@ -28295,7 +28247,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K714">
         <v>0.0005553672794307337</v>
@@ -28321,7 +28273,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K715">
         <v>0.0005553672794307337</v>
@@ -28347,7 +28299,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K716">
         <v>0.0005553672794307337</v>
@@ -28373,7 +28325,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K717">
         <v>0.0005069188296402802</v>
@@ -28399,7 +28351,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K718">
         <v>0.0005063027942373167</v>
@@ -28425,7 +28377,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K719">
         <v>0.0005063027942373167</v>
@@ -28451,7 +28403,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K720">
         <v>0.0005063027942373167</v>
@@ -28477,7 +28429,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K721">
         <v>0.0005063027942373167</v>
@@ -28503,7 +28455,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K722">
         <v>0.0005063027942373167</v>
@@ -28529,7 +28481,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K723">
         <v>0.0005031617893798642</v>
@@ -28555,7 +28507,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K724">
         <v>0.0004671113261928166</v>
@@ -28581,7 +28533,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K725">
         <v>0.0004671113261928166</v>
@@ -28607,7 +28559,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K726">
         <v>0.0004566585197161439</v>
@@ -28633,7 +28585,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K727">
         <v>0.0004566585197161439</v>
@@ -28659,7 +28611,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K728">
         <v>0.0004566585197161439</v>
@@ -28685,7 +28637,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K729">
         <v>0.0004309504767155081</v>
@@ -28711,7 +28663,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K730">
         <v>0.0004309504767155081</v>
@@ -28737,7 +28689,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K731">
         <v>0.0004064672349562269</v>
@@ -28763,7 +28715,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K732">
         <v>0.0003584457419497895</v>
@@ -28789,7 +28741,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K733">
         <v>0.0003557891133044593</v>
@@ -28815,7 +28767,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K734">
         <v>0.0003557891133044593</v>
@@ -28867,7 +28819,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K736">
         <v>0.0003047280044411111</v>
@@ -28893,7 +28845,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K737">
         <v>0.0003047280044411111</v>
@@ -28919,7 +28871,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K738">
         <v>0.0003047280044411111</v>
@@ -28945,7 +28897,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K739">
         <v>0.0003047280044411111</v>
@@ -28971,7 +28923,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K740">
         <v>0.0002534594148201401</v>
@@ -28997,7 +28949,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K741">
         <v>0.0002534594148201401</v>
@@ -29023,7 +28975,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K742">
         <v>0.0002534594148201401</v>
@@ -29049,7 +29001,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K743">
         <v>0.0002534594148201401</v>
@@ -29075,7 +29027,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K744">
         <v>0.0002534594148201401</v>
@@ -29101,7 +29053,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K745">
         <v>0.0002145508244345087</v>
@@ -29127,7 +29079,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K746">
         <v>0.0002022810667016476</v>
@@ -29153,7 +29105,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K747">
         <v>0.0002022810667016476</v>
@@ -29179,7 +29131,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K748">
         <v>0.0002022810667016476</v>
@@ -29205,7 +29157,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K749">
         <v>0.0001517103428668055</v>
@@ -29231,7 +29183,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K750">
         <v>0.0001517103428668055</v>
@@ -29257,7 +29209,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K751">
         <v>0.0001517103428668055</v>
@@ -29283,7 +29235,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K752">
         <v>0.0001517103428668055</v>
@@ -29309,7 +29261,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K753">
         <v>0.0001517103428668055</v>
@@ -29335,7 +29287,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K754">
         <v>0.0001517103428668055</v>
@@ -29361,7 +29313,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K755">
         <v>0.0001517103428668055</v>
@@ -29387,7 +29339,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K756">
         <v>0.0001452239853633365</v>
@@ -29413,7 +29365,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K757">
         <v>0.0001121133167907504</v>
@@ -29439,7 +29391,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K758">
         <v>0.0001121133167907504</v>
@@ -29465,7 +29417,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K759">
         <v>0.0001121133167907504</v>
@@ -29491,7 +29443,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K760">
         <v>0.0001026888648413511</v>
@@ -29517,7 +29469,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K761">
         <v>0.0001026888648413511</v>
@@ -29543,7 +29495,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K762">
         <v>0.0001026888648413511</v>
@@ -29569,7 +29521,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K763">
         <v>0.0001026888648413511</v>
@@ -29595,7 +29547,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K764">
         <v>0.0001026888648413511</v>
@@ -29621,7 +29573,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K765">
         <v>0.0001026888648413511</v>
@@ -29647,7 +29599,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K766">
         <v>0.0001026888648413511</v>
@@ -29673,7 +29625,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K767">
         <v>0.0001026888648413511</v>
@@ -29699,7 +29651,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K768">
         <v>0.0001026888648413511</v>
@@ -29725,7 +29677,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K769">
         <v>8.070372847672743E-05</v>
@@ -29751,7 +29703,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K770">
         <v>6.521081890671782E-05</v>
@@ -29777,7 +29729,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K771">
         <v>5.706615367293184E-05</v>
@@ -29803,7 +29755,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K772">
         <v>5.706615367293184E-05</v>
@@ -29829,7 +29781,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K773">
         <v>5.706615367293184E-05</v>
@@ -29855,7 +29807,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K774">
         <v>5.706615367293184E-05</v>
@@ -29881,7 +29833,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K775">
         <v>5.706615367293184E-05</v>
@@ -29907,7 +29859,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K776">
         <v>5.706615367293184E-05</v>
@@ -29933,7 +29885,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K777">
         <v>5.706615367293184E-05</v>
@@ -29959,7 +29911,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K778">
         <v>5.706615367293184E-05</v>
@@ -29985,7 +29937,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K779">
         <v>5.706615367293184E-05</v>
@@ -30011,7 +29963,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K780">
         <v>3.29471591846839E-05</v>
@@ -30037,7 +29989,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K781">
         <v>2.682080758714013E-05</v>
@@ -30063,7 +30015,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K782">
         <v>1.896517492176649E-05</v>
@@ -30089,7 +30041,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K783">
         <v>1.896517492176649E-05</v>
@@ -30115,7 +30067,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K784">
         <v>1.896517492176649E-05</v>
@@ -30141,7 +30093,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K785">
         <v>1.896517492176649E-05</v>
@@ -30167,7 +30119,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K786">
         <v>1.896517492176649E-05</v>
@@ -30193,7 +30145,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K787">
         <v>1.896517492176649E-05</v>
@@ -30219,7 +30171,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K788">
         <v>1.896517492176649E-05</v>
@@ -30245,7 +30197,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K789">
         <v>1.896517492176649E-05</v>
@@ -30271,7 +30223,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K790">
         <v>1.896517492176649E-05</v>
@@ -30297,7 +30249,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K791">
         <v>1.896517492176649E-05</v>
@@ -30323,7 +30275,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K792">
         <v>1.896517492176649E-05</v>
@@ -30349,7 +30301,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K793">
         <v>1.896517492176649E-05</v>
@@ -30375,7 +30327,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K794">
         <v>1.896517492176649E-05</v>
@@ -30401,7 +30353,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K795">
         <v>1.896517492176649E-05</v>
@@ -30427,7 +30379,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K796">
         <v>1.896517492176649E-05</v>
@@ -30453,7 +30405,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K797">
         <v>1.896517492176649E-05</v>
@@ -30479,7 +30431,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K798">
         <v>1.896517492176649E-05</v>
@@ -30505,7 +30457,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K799">
         <v>1.896517492176649E-05</v>
@@ -30531,7 +30483,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K800">
         <v>1.341040379356992E-05</v>
@@ -30557,7 +30509,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K801">
         <v>1.341040379356992E-05</v>
@@ -30583,7 +30535,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K802">
         <v>8.026284521052224E-06</v>
@@ -30609,7 +30561,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K803">
         <v>0</v>
@@ -30635,7 +30587,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K804">
         <v>0</v>
@@ -30661,7 +30613,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K805">
         <v>0</v>
@@ -30687,7 +30639,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K806">
         <v>0</v>
@@ -30713,7 +30665,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K807">
         <v>0</v>
@@ -30739,7 +30691,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K808">
         <v>0</v>
@@ -30765,7 +30717,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K809">
         <v>0</v>
@@ -30791,7 +30743,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K810">
         <v>0</v>
@@ -30817,7 +30769,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K811">
         <v>0</v>
@@ -30843,7 +30795,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K812">
         <v>0</v>
@@ -30869,7 +30821,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K813">
         <v>0</v>
@@ -30895,7 +30847,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K814">
         <v>0</v>
@@ -30921,7 +30873,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K815">
         <v>0</v>
@@ -30947,7 +30899,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K816">
         <v>0</v>
@@ -30973,7 +30925,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K817">
         <v>0</v>
@@ -30999,7 +30951,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K818">
         <v>0</v>
@@ -31025,7 +30977,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K819">
         <v>0</v>
